--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_0.003_scores.xlsx
@@ -124,15 +124,15 @@
     <t>safety</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -145,13 +145,13 @@
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>join</t>
@@ -1357,13 +1357,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7412280701754386</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L25">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N25">
         <v>0.9399999999999999</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1383,25 +1383,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L26">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1409,25 +1409,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N27">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1539,25 +1539,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.636085626911315</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="L32">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="M32">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1565,25 +1565,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.632183908045977</v>
+        <v>0.62</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1591,13 +1591,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.62</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="10:17">
